--- a/data/swf_country_final.xlsx
+++ b/data/swf_country_final.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="546" documentId="8_{5396B6D8-9EC1-4F95-A82F-5A7610E4C1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51AE2441-2271-C742-B84C-304A8AB22E8C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="38400" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Read me" sheetId="19" r:id="rId1"/>
@@ -7166,7 +7166,7 @@
   </sheetPr>
   <dimension ref="A2:D58"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -42417,7 +42417,7 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>

--- a/data/swf_country_final.xlsx
+++ b/data/swf_country_final.xlsx
@@ -6978,7 +6978,7 @@
   <dimension ref="B3:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
